--- a/backend/data/courts.xlsx
+++ b/backend/data/courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\projects\VolleyBolley\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E70836-50EC-46E3-BA64-E92D31FBF58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE5FF5-395F-42EC-B5C3-C76CD3532424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
   <si>
     <t>country</t>
   </si>
@@ -283,6 +283,87 @@
   </si>
   <si>
     <t>08:00-22:00</t>
+  </si>
+  <si>
+    <t>price_description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Main arena in Bangkok</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Stadium in Chiang Mai</t>
+  </si>
+  <si>
+    <t>09:00-21:00</t>
+  </si>
+  <si>
+    <t>Sports hall in Phuket</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Beach court in Pattaya</t>
+  </si>
+  <si>
+    <t>07:00-19:00</t>
+  </si>
+  <si>
+    <t>Indoor court in Krabi</t>
+  </si>
+  <si>
+    <t>Arena in Hua Hin</t>
+  </si>
+  <si>
+    <t>Court in Surat Thani</t>
+  </si>
+  <si>
+    <t>Stadium in Ayutthaya</t>
+  </si>
+  <si>
+    <t>Sports center in Nakhon Ratchasima</t>
+  </si>
+  <si>
+    <t>Arena in Udon Thani</t>
+  </si>
+  <si>
+    <t>Central court in Nicosia</t>
+  </si>
+  <si>
+    <t>Beach arena in Limassol</t>
+  </si>
+  <si>
+    <t>Sports hall in Larnaca</t>
+  </si>
+  <si>
+    <t>Arena in Paphos</t>
+  </si>
+  <si>
+    <t>Stadium in Famagusta</t>
+  </si>
+  <si>
+    <t>Court in Kyrenia</t>
+  </si>
+  <si>
+    <t>Sports center in Morphou</t>
+  </si>
+  <si>
+    <t>Arena in Paralimni</t>
+  </si>
+  <si>
+    <t>Indoor court in Deryneia</t>
+  </si>
+  <si>
+    <t>Beach court in Polis</t>
   </si>
 </sst>
 </file>
@@ -298,23 +379,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -340,17 +423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -358,18 +441,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,15 +732,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -677,10 +757,16 @@
         <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -696,11 +782,17 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -716,15 +808,21 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2521818</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -736,15 +834,21 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2679756</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -756,11 +860,17 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -776,15 +886,21 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1390814</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -796,11 +912,17 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -816,11 +938,17 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -836,11 +964,17 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -856,11 +990,17 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -876,11 +1016,17 @@
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -896,11 +1042,17 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -916,11 +1068,17 @@
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -936,11 +1094,17 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -956,11 +1120,17 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -976,11 +1146,17 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -996,11 +1172,17 @@
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1016,11 +1198,17 @@
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1036,11 +1224,17 @@
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -1056,11 +1250,17 @@
       <c r="E20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -1076,12 +1276,18 @@
       <c r="E21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>85</v>
+      <c r="F21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/backend/data/courts.xlsx
+++ b/backend/data/courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\projects\VolleyBolley\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE5FF5-395F-42EC-B5C3-C76CD3532424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C2B344-3B6C-48BB-A2FF-00ED70712518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>country</t>
   </si>
@@ -364,6 +364,15 @@
   </si>
   <si>
     <t>Beach court in Polis</t>
+  </si>
+  <si>
+    <t>7.8804</t>
+  </si>
+  <si>
+    <t>12.9236</t>
+  </si>
+  <si>
+    <t>12.5707</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,8 +458,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +747,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,8 +834,8 @@
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3">
-        <v>2521818</v>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -848,8 +860,8 @@
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3">
-        <v>2679756</v>
+      <c r="B5" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -900,8 +912,8 @@
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3">
-        <v>1390814</v>
+      <c r="B7" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>

--- a/backend/data/courts.xlsx
+++ b/backend/data/courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\projects\VolleyBolley\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09239EF-2AC6-40C9-9442-DE3364973CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D2F56-35AB-4D23-A57C-B695BC6E6273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="2184" windowWidth="20196" windowHeight="11112" xr2:uid="{C296FC3A-69E0-476C-8982-8CF559482377}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C296FC3A-69E0-476C-8982-8CF559482377}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,30 +513,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -594,24 +570,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,747 +901,754 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K21"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:11" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:11" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:11" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="2" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>